--- a/biology/Zoologie/Adelphobates_quinquevittatus/Adelphobates_quinquevittatus.xlsx
+++ b/biology/Zoologie/Adelphobates_quinquevittatus/Adelphobates_quinquevittatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelphobates quinquevittatus est une espèce d'amphibiens de la famille des Dendrobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelphobates quinquevittatus est une espèce d'amphibiens de la famille des Dendrobatidae.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le haut bassin de l'Amazone[1],[2],[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le haut bassin de l'Amazone :
 au Brésil dans les États du Rondônia et de l'Amazonas ;
 en Bolivie dans le département de Pando ;
 au Pérou dans la région de Loreto.
-Elle vit sur la litière de feuille de la forêt tropicale humide. C'est une espèce terrestre[2].
+Elle vit sur la litière de feuille de la forêt tropicale humide. C'est une espèce terrestre.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa face dorsale est de couleur noire et présente trois bandes médianes et deux bandes latérales blanches. Ses membres sont gris, verts, ou orange à points noirs. Les mâles mesurent de 16,0 à 17,5 mm et les femelles de 18,3 à 20,2 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa face dorsale est de couleur noire et présente trois bandes médianes et deux bandes latérales blanches. Ses membres sont gris, verts, ou orange à points noirs. Les mâles mesurent de 16,0 à 17,5 mm et les femelles de 18,3 à 20,2 mm.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin quinquies, « cinq fois », et vittātus, « orné de bandelettes », lui a été donné en référence à sa livrée.
 </t>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Steindachner, 1864 : Batrachologische Mittheilungen. Verhandlungen der Kaiserlich-Königlichen Zoologisch-Botanischen Gesellschaft in Wien, vol. 14, p. 239–288 (texte intégral).</t>
         </is>
